--- a/biology/Zoologie/Acropsopilio_boopis/Acropsopilio_boopis.xlsx
+++ b/biology/Zoologie/Acropsopilio_boopis/Acropsopilio_boopis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acropsopilio boopis est une espèce d'opilions dyspnois de la famille des Acropsopilionidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis dans les États de New York, du Connecticut, du Maine, du Wisconsin, du Michigan, de l'Indiana, de l'Ohio et de Caroline du Nord, au Canada au Québec et en Ontario et au Japon[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis dans les États de New York, du Connecticut, du Maine, du Wisconsin, du Michigan, de l'Indiana, de l'Ohio et de Caroline du Nord, au Canada au Québec et en Ontario et au Japon.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle syntype mesure 1 mm de long et 0,6 mm de large[4].
-La femelle décrite par Shear en 1975 mesure 0,91 mm[1].
-Cette espèce est parthénogénétique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle syntype mesure 1 mm de long et 0,6 mm de large.
+La femelle décrite par Shear en 1975 mesure 0,91 mm.
+Cette espèce est parthénogénétique.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Caddo boopis par en Crosby, 1904. Elle est placée dans le genre Acropsopilio par Shear en 1975[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Caddo boopis par en Crosby, 1904. Elle est placée dans le genre Acropsopilio par Shear en 1975.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Crosby, 1904 : « Notes on some phalangids collected near Ithaca, N. Y. » Journal of the New York Entomological Society, vol. 12, no 4, p. 253-256 (texte intégral).</t>
         </is>
